--- a/input_data/USA/Y_1987_ImpNoExpNoCII_Base.xlsx
+++ b/input_data/USA/Y_1987_ImpNoExpNoCII_Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Desktop\EndUse_shortTermSave\2020_NationalOfficial_IOSUT\USA\Benchmark_SUTIO\_NewResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Documents\GitHub\IO_MaterialEndUse_Shares\input_data\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA605F0-1C10-4865-802E-6C617961B546}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D2B311-FDF0-43F2-8E05-ACF13A1D39FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Dairy farm products</t>
   </si>
@@ -1583,6 +1583,9 @@
   </si>
   <si>
     <t>final_demand</t>
+  </si>
+  <si>
+    <t>Hospitals1</t>
   </si>
 </sst>
 </file>
@@ -1986,13 +1989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>518</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10100</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10200</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10301</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10302</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>1117.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20100</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>-330.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20201</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>207.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20202</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>1028.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20203</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20300</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20401</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>4325.9000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20402</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>225.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20501</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>6975.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20502</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20503</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20600</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20702</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>4459.7999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30001</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>-399.7999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30002</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>2637.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40001</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>333.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40002</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>1474.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>50000</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>-94.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>60100</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>60200</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>405.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>70000</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>80000</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>-88.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>90001</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>90002</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>-171.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>90003</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>90004</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>100000</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>110101</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>114564.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>110102</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>5625.7999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>110103</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>16221.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>110104</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>110105</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>39031.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>110106</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>6467</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>110107</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>1604.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>110201</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>31329.1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>110202</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>44862.400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>110203</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>13344.2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>110204</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>2453.9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>110205</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>19152</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>110206</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>2967.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>110207</v>
       </c>
@@ -2487,18 +2490,18 @@
         <v>13474.4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>110231</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>521</v>
       </c>
       <c r="C46">
         <v>8476.9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>110232</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>110241</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>4103.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>110250</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>7126.3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>110301</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>7815.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>110302</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>452.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>110303</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>19156.099999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>110304</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>3357.4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>110305</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>317.7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>110306</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>7835.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>110307</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>10242.200000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>110308</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>110400</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>26420.6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>110501</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>3106.8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>110502</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>110601</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>10815</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>110602</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>1675.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>110603</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>565.29999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>110701</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>110702</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>1258.3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>110703</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>3229.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110704</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>5586.2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>120100</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>15749.3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>120201</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>12774.4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>120202</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>146.6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>120203</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>120204</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>120205</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>120206</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>120207</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>120208</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120209</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>120210</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>120211</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>120212</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>1044.4000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>120213</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>1177.9000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>120214</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>16249.7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>120215</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>120216</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>243.6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>130100</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>15130.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>130200</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>130300</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>2504.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>130500</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>953.4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>130600</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>817.99999999999989</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>130700</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>140101</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>19032.400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>140102</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>16880.7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>140105</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>8949.2000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140200</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>1082.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>140300</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>5564.6999999999989</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>140400</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>2857.4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>140500</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>140600</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>140700</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>1962.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>140800</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>4044.1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>140900</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>10321.6</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>141000</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>1646.7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>141100</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>3078.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>141200</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>141301</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>3685.7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>141302</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>141401</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>714.9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>141402</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>4825.3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>141403</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>141501</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>4670.4000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>141502</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>697.90000000000009</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>141600</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>428.49999999999989</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>141700</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>771.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>141801</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>13971.9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>141802</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>4933.3999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>141803</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>1342.3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>141900</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>1697.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>142001</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>7747.9000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>142002</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>1035.7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>142003</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>142004</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>142101</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>13132.1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>142102</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>142103</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>3630.1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>142104</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>4224.3999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>142200</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>18001.099999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>142300</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>1985.4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>142400</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>142500</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>142600</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>142700</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>142800</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>3824.1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>142900</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>1418.3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>143000</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>143100</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>978.9</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>143201</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>4970.8</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>143202</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>8221.3000000000011</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>150101</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>19547.099999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>150102</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>150103</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>858.5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>150200</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>160100</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>896.9</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>160200</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>160300</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>214.3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>160400</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>74.699999999999989</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>170100</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>7035.1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>170600</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>170700</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>170900</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>162.69999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>171001</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>214.7</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>171100</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>180101</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>1404.8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>180102</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>1728.1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>180300</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>290.2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>180400</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>69149.8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>190100</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>1417.3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>190200</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>6675.5000000000009</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>190301</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>136.69999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>190302</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>396.49999999999989</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>190303</v>
       </c>
@@ -3752,7 +3755,7 @@
         <v>312.2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>190304</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>603.30000000000007</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>190305</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>190306</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>1118.9000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>200100</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>200200</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>200300</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>200400</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>200501</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>200502</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>200600</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>200701</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>200702</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>200703</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>3920.3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>200800</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>200901</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>200903</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>1877.4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>200904</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>210000</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>220101</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>220102</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>393.7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>220103</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>220200</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>4959.7999999999993</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>220300</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>1972.8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>220400</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>2755.2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>230100</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>2103.6999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>230200</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>6234.8000000000011</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>230300</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>1006.4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>230400</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>2069.1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>230500</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>2013.1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>230600</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>1875.8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>230700</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>2055.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>240100</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>240400</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>504.69999999999987</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>240500</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>9095.1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>240701</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>240702</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>640.79999999999995</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>240703</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>230.2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>240705</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>612.29999999999995</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>240706</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>240800</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>1194.2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>250000</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>523.20000000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>260100</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>6577.6</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>260200</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>5771.2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>260301</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>9302.2000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>260302</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>260400</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>1170.3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>260501</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>2116.6999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>260601</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>260602</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>547.4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>260700</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>1813.6</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>260802</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>281.3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>260803</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>260806</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>-3.9999999999999929</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>270100</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>4420.3999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>270201</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>260.7</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>270300</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>872.09999999999991</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>270401</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>270402</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>281.60000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>270403</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>148.9</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>270404</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>270405</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>270406</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>795.2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>280100</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>280200</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>280300</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>280400</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>290100</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>27617.7</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>290201</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>7471.7999999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>290202</v>
       </c>
@@ -4511,7 +4514,7 @@
         <v>3942.2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>290203</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>138.1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>290300</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>14108.2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>300000</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>493.80000000000013</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>310101</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>69813.8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>310102</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>1476.3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>310103</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>310200</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>310300</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>320100</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>5498.9000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>320200</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>2807.2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>320300</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>1720.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>320400</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>3379.7</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>320500</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>301.89999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>320600</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>330001</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>340100</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>340201</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>9331.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>340202</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>222.7</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>340301</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>243.4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>340302</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>1574.1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>340303</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>1437.9</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>340304</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>537.29999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>340305</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>395.5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>350100</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>350200</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>360100</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>360200</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>360300</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>360400</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>360500</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>360600</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>360701</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>360702</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>504.3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>360800</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>360900</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>1092.3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>361000</v>
       </c>
@@ -4907,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>361100</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>361200</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>361300</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>361400</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>361500</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>481.5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>361600</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>357.3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>361700</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>361900</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>362000</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>362100</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>362200</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>370101</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>370102</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>370103</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>370200</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>370300</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>370401</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>370402</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>380100</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>380400</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>380501</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>-35.5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>380700</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>380800</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>380900</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>-13.400000000000009</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>381000</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>263.8</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>381100</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>187.3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>381200</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>381300</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>293.10000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>381400</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>390100</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>390200</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>65.399999999999991</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>400100</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>400200</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>400300</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>471.1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>400400</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>236.7</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400500</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>6.3999999999999986</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>400600</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>2690.6</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>400700</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>429.7</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>400800</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>400901</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>400902</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>410100</v>
       </c>
@@ -5369,7 +5372,7 @@
         <v>243.2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>410201</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>187.3</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>410202</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>410203</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>1420.7</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>420100</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>1146.8</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>420201</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>1392.2</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>420202</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>420300</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>420401</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>420402</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>420500</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>420700</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>420800</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>421000</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>438.9</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>421100</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>430100</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>2260.9</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>430200</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>2812.4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>440001</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>5428.7999999999993</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>440002</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>3195.7</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>450100</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>9344.1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>450200</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>605.40000000000009</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>450300</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>261.39999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>460100</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>460200</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>2820.8</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>460300</v>
       </c>
@@ -5633,7 +5636,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>460400</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>2113.6</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>470100</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>3484.7</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>470200</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>1319.4</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>470300</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>5065.0000000000009</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>470401</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>470402</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>449.9</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>470404</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>1269.7</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>470405</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>470500</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>480100</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>1668.6</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>480200</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>480300</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>954.20000000000016</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>480400</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>1253.5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>480500</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>2620.5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>480600</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>7268.4000000000005</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>490100</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>3760.6</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>490200</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>490300</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>418.9</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>490500</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>490600</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>1101.7</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>490700</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>4178.4000000000005</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>490800</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>2075.9</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>500100</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>500200</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>341.1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>500300</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>638.70000000000005</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>500400</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>2729.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>510102</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>1659.5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>510103</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>21159.1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>510104</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>17118.8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>510400</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>2978.8</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>520100</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>526.1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>520200</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>520300</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>4287.6000000000004</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>520400</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>871.6</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>520500</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>2753.6</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>530200</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>1949.9</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>530300</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>1286.5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>530400</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>1543.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>530500</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>530700</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>530800</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>1414.3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>540100</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>3655.9</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>540200</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>3238.2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>540300</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>2524.1999999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>540400</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>2723.9999999999991</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>540500</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>1234.7</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>540700</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>1553.7</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>550100</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>1515.3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>550200</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>1702.4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>550300</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>560100</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>16770</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>560200</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>560300</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>15265.3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>560500</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>12635.5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>570100</v>
       </c>
@@ -6238,7 +6241,7 @@
         <v>528.6</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>570200</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>3325.1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>570300</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>2495.599999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>580100</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>1816.5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>580200</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>1475.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>580400</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>856.89999999999986</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>580600</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>1120.3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>580700</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>590100</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>3431.1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>590200</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>3495.9</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>590301</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>171261.8</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>590302</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>4604.8999999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>600100</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>25743.9</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>600200</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>9219.5000000000018</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>600400</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>8727.6</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>610100</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>7637.8</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>610200</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>5788.1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>610300</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>1570.8</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>610500</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>1832.5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>610601</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>610603</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>2267.1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>610700</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>1172.9000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>620101</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>33725.199999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>620102</v>
       </c>
@@ -6491,7 +6494,7 @@
         <v>1546.2</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>620200</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>4907.5000000000009</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>620300</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>620400</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>5264.4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>620500</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>4557.2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>620600</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>620700</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>2111.7000000000012</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>620800</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>1756.1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>620900</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>2798.9</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>621000</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>4323.0999999999995</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>621100</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>5234.2999999999993</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>630200</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>2110.3000000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>630300</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>11900.2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>640101</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>5955.1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>640102</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>3175.8</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>640104</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>459.7</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>640105</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>1847.4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>640200</v>
       </c>
@@ -6678,7 +6681,7 @@
         <v>1317.8</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>640301</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>4918.7</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>640302</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>2014.2</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>640400</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>5211.7000000000007</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>640501</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>756.7</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>640502</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>640503</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>640504</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>273.89999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>640700</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>149.9</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>640800</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>484.6</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>640900</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>683.4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>641000</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>641100</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>1724.6</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>641200</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>3266.3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>650100</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>5728.9999999999991</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>650200</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>11640</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>650300</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>29695.3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>650400</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>5344.2</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>650500</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>37142.699999999997</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>650600</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>1115.8</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>650701</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>650702</v>
       </c>
@@ -6909,7 +6912,7 @@
         <v>1663.3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>660000</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>75744.600000000006</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>670000</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>680100</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>77709.3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>680200</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>27794.5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>680301</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>13852.1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>680302</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>690100</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>166214.99999999991</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>690200</v>
       </c>
@@ -6997,7 +7000,7 @@
         <v>385279.1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>700100</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>111576.5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>700200</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>8045.0999999999995</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>700300</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>26932.7</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>700400</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>84210.200000000012</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>700500</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>710100</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>325143.90000000002</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>710201</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>153685</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>710202</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>720100</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>21962.799999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>720201</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>9270.2999999999993</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>720202</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>4670.2</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>720203</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>13437.4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>720204</v>
       </c>
@@ -7140,7 +7143,7 @@
         <v>5036.7000000000007</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>720205</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>3126.6</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>720300</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>13512.5</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>730101</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>3960.1</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>730102</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>4092.6</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>730103</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>4776.8</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>730104</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>730105</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>20774.5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>730106</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>730107</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>2491.5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>730108</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>4111.2000000000007</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>730109</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>2230.1</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>730200</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>1342.1</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>730301</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>33664.400000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>730302</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>11647</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>730303</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>740000</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>167368.59999999989</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>750001</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>7080.2000000000007</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>750002</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>58106.2</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>750003</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>4905.5</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>760101</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>4730.9000000000005</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>760102</v>
       </c>
@@ -7371,7 +7374,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>760201</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>760202</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>1762.3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>760203</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>1385.6</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>760204</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>3357.3</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>760205</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>7368.9</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>760206</v>
       </c>
@@ -7437,7 +7440,7 @@
         <v>20783.8</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>770100</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>133502.5</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>770200</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>136457.20000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>770301</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>29720.7</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>770302</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>31191.3</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>770401</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>10851.2</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>770402</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>28062.2</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>770403</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>8705.4</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>770501</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>2381.4</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>770502</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>12497.9</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>770503</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>23610</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>770504</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>11465.4</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>770600</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>3624.6</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>770700</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>12884.5</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>770800</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>9095.2999999999993</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>770900</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>16870.7</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>780100</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>8776.3999999999978</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>780500</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>-455.4</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>790300</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>14621.2</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>800000</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>39459.800000000003</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>810001</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>-4462.8</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>810002</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>-3844.6000000000022</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>820000</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>466784.8</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>830001</v>
       </c>
@@ -7690,7 +7693,7 @@
         <v>-31653.200000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>840000</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>7709</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>850000</v>
       </c>
